--- a/data/trans_bre/P25_12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_12-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>7,9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>18,04</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>170,16%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>201,31%</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>268,84%</t>
+          <t>170,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>398,56%</t>
+          <t>116,81%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>142,31%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>73,08%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>398,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>164,14%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 8,3</t>
+          <t>-0,16; 8,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 14,71</t>
+          <t>-0,47; 13,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 12,56</t>
+          <t>-0,29; 11,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 27,74</t>
+          <t>-1,73; 18,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,47; —</t>
+          <t>9,97; 27,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,0; 776,47</t>
+          <t>2,94; 19,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 1208,72</t>
+          <t>-40,05; 1215,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>98,14; 1437,11</t>
+          <t>-23,59; 481,11</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-24,9; 922,42</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-16,52; 291,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>110,79; 1301,63</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 555,33</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>11,11</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>6,64</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>118,46%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>123,76%</t>
+          <t>11,55</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>108,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>76,79%</t>
+          <t>123,25%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>148,06%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>76,82%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>150,43%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 13,69</t>
+          <t>0,2; 13,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 8,03</t>
+          <t>0,04; 8,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 8,58</t>
+          <t>-6,77; 8,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 14,08</t>
+          <t>4,34; 18,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 330,5</t>
+          <t>-1,21; 13,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 499,9</t>
+          <t>3,69; 19,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 244,0</t>
+          <t>-4,5; 325,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 288,33</t>
+          <t>-9,76; 472,7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-55,11; 201,84</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>40,04; 422,91</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-9,98; 296,83</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30,14; 508,67</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,66</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>12,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>10,12</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>10,6</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>160,67%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>223,44%</t>
+          <t>14,77</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>223,18%</t>
+          <t>118,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>144,03%</t>
+          <t>230,65%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>225,03%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>125,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>144,08%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>143,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 15,85</t>
+          <t>0,87; 12,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 16,68</t>
+          <t>7,66; 17,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 13,01</t>
+          <t>4,54; 12,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 16,29</t>
+          <t>4,0; 15,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,86; 406,83</t>
+          <t>4,95; 16,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,98; 470,41</t>
+          <t>6,44; 21,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>67,25; 534,34</t>
+          <t>2,35; 299,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,52; 320,72</t>
+          <t>93,83; 487,66</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>66,29; 554,31</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33,91; 281,86</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>40,05; 340,27</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>40,97; 304,39</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,27</t>
+          <t>12,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,13</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>10,87</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>12,92</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>256,47%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>131,88%</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,87%</t>
+          <t>241,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>135,14%</t>
+          <t>127,65%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>56,8%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>98,54%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>135,12%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>69,33%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 17,53</t>
+          <t>7,48; 17,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 16,67</t>
+          <t>6,17; 16,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 12,76</t>
+          <t>1,14; 13,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 19,52</t>
+          <t>4,94; 17,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>102,62; 574,05</t>
+          <t>6,41; 20,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,12; 274,52</t>
+          <t>2,59; 16,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,96; 133,04</t>
+          <t>94,93; 531,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,17; 288,63</t>
+          <t>51,53; 249,69</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6,2; 134,51</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32,49; 221,17</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>39,2; 296,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14,73; 171,55</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,9</t>
+          <t>14,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,49</t>
+          <t>13,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>14,22</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>15,16</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>279,71%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>222,11%</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>258,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>220,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>95,33%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>100,28%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>91,97%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43,25%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,7; 22,3</t>
+          <t>8,08; 20,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 19,12</t>
+          <t>7,99; 19,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 14,7</t>
+          <t>2,66; 14,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 23,69</t>
+          <t>5,12; 22,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>101,81; 644,86</t>
+          <t>6,82; 23,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>91,22; 489,3</t>
+          <t>-0,35; 16,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,63; 240,38</t>
+          <t>86,88; 598,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,42; 190,25</t>
+          <t>83,28; 473,44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20,94; 222,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27,93; 211,62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31,21; 195,93</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 106,0</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,28</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>47,91%</t>
+          <t>16,26</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>81,02%</t>
+          <t>18,72</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>111,65%</t>
+          <t>57,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>308,89%</t>
+          <t>88,02%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>139,97%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>80,06%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>308,46%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>210,55%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 10,91</t>
+          <t>-3,43; 11,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 14,37</t>
+          <t>0,17; 15,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 14,5</t>
+          <t>2,76; 16,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,61; 25,3</t>
+          <t>0,23; 17,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 207,56</t>
+          <t>7,84; 24,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 236,33</t>
+          <t>9,87; 27,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,43; 377,77</t>
+          <t>-37,86; 235,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>65,25; 979,01</t>
+          <t>-2,77; 255,9</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 455,71</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 248,62</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59,13; 871,64</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>63,15; 469,37</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,82</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>158,85%</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>158,7%</t>
+          <t>12,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>103,29%</t>
+          <t>146,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>153,37%</t>
+          <t>150,44%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>100,07%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>102,38%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>153,36%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>114,0%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,46</t>
+          <t>5,84; 10,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 12,17</t>
+          <t>7,48; 11,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,86</t>
+          <t>4,75; 9,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,37; 16,61</t>
+          <t>7,39; 13,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,72; 257,27</t>
+          <t>10,13; 16,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>102,32; 239,02</t>
+          <t>9,66; 16,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>51,83; 167,79</t>
+          <t>77,78; 226,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>102,1; 225,79</t>
+          <t>97,47; 224,55</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>51,82; 154,06</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>60,47; 152,36</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>97,66; 222,41</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>74,49; 165,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
